--- a/reports/sea_raw_data/date_city_teu.xlsx
+++ b/reports/sea_raw_data/date_city_teu.xlsx
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1060.528290905956</v>
+        <v>1096.528290905956</v>
       </c>
     </row>
     <row r="81">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>415</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
